--- a/data_year/zb/建筑业/建设工程监理营业收入/建设工程监理其他收入.xlsx
+++ b/data_year/zb/建筑业/建设工程监理营业收入/建设工程监理其他收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,380 +523,114 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
       <c r="C2" t="n">
-        <v>3561.19</v>
+        <v>1793</v>
       </c>
       <c r="D2" t="n">
-        <v>363.2</v>
+        <v>1629</v>
       </c>
       <c r="E2" t="n">
-        <v>373.66</v>
+        <v>392001</v>
       </c>
       <c r="F2" t="n">
-        <v>15592.89</v>
+        <v>1288283</v>
       </c>
       <c r="G2" t="n">
-        <v>19939.29</v>
+        <v>118122</v>
       </c>
       <c r="H2" t="n">
-        <v>519614.31</v>
+        <v>4861421</v>
       </c>
       <c r="I2" t="n">
-        <v>338784.99</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>915131</v>
+      </c>
+      <c r="J2" t="n">
+        <v>87761</v>
+      </c>
       <c r="K2" t="n">
-        <v>51508.06</v>
+        <v>110735</v>
       </c>
       <c r="L2" t="n">
-        <v>116.24</v>
+        <v>317</v>
       </c>
       <c r="M2" t="n">
-        <v>86700.84</v>
+        <v>1873542</v>
       </c>
       <c r="N2" t="n">
-        <v>1235.04</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>30965</v>
+      </c>
+      <c r="O2" t="n">
+        <v>22562</v>
+      </c>
       <c r="P2" t="n">
-        <v>1120.75</v>
+        <v>134</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>9860</v>
       </c>
       <c r="R2" t="n">
-        <v>298.16</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1255.53</v>
+      </c>
       <c r="C3" t="n">
-        <v>9147.209999999999</v>
+        <v>1497.52</v>
       </c>
       <c r="D3" t="n">
-        <v>373.25</v>
+        <v>2192.15</v>
       </c>
       <c r="E3" t="n">
-        <v>547.39</v>
+        <v>507589.78</v>
       </c>
       <c r="F3" t="n">
-        <v>224447.11</v>
+        <v>1372851.8</v>
       </c>
       <c r="G3" t="n">
-        <v>16834.25</v>
+        <v>125112.43</v>
       </c>
       <c r="H3" t="n">
-        <v>915939.01</v>
+        <v>5813686.24</v>
       </c>
       <c r="I3" t="n">
-        <v>509859.06</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>1137657.55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>140918.03</v>
+      </c>
       <c r="K3" t="n">
-        <v>59102.64</v>
+        <v>316005.21</v>
       </c>
       <c r="L3" t="n">
-        <v>225.08</v>
+        <v>239.25</v>
       </c>
       <c r="M3" t="n">
-        <v>92696.56</v>
+        <v>2073538.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2189.36</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
-        <v>245.6</v>
-      </c>
+        <v>64236.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>33660.24</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>8097.6</v>
       </c>
       <c r="R3" t="n">
-        <v>261.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>685</v>
-      </c>
-      <c r="D4" t="n">
-        <v>542.8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>280.46</v>
-      </c>
-      <c r="F4" t="n">
-        <v>344871</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19650.74</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1908239.29</v>
-      </c>
-      <c r="I4" t="n">
-        <v>921118.34</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>526936.3199999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>278.67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>90670.50999999999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2352.04</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
-        <v>245.6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="R4" t="n">
-        <v>522.92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>515</v>
-      </c>
-      <c r="D5" t="n">
-        <v>166</v>
-      </c>
-      <c r="E5" t="n">
-        <v>330145</v>
-      </c>
-      <c r="F5" t="n">
-        <v>82618</v>
-      </c>
-      <c r="G5" t="n">
-        <v>30724</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1883996</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1075040</v>
-      </c>
-      <c r="J5" t="n">
-        <v>43060</v>
-      </c>
-      <c r="K5" t="n">
-        <v>152759</v>
-      </c>
-      <c r="L5" t="n">
-        <v>323</v>
-      </c>
-      <c r="M5" t="n">
-        <v>143589</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10678</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9565</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>192</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4624</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>771.34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="E6" t="n">
-        <v>455421.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>608627.14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>28856.62</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2483345.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>942977.0699999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>74076.78999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>165970.09</v>
-      </c>
-      <c r="L6" t="n">
-        <v>108.78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>159645.48</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17436.48</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21066.01</v>
-      </c>
-      <c r="P6" t="n">
-        <v>160.64</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>8139.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1793</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1629</v>
-      </c>
-      <c r="E7" t="n">
-        <v>392001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1288283</v>
-      </c>
-      <c r="G7" t="n">
-        <v>118122</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4861421</v>
-      </c>
-      <c r="I7" t="n">
-        <v>915131</v>
-      </c>
-      <c r="J7" t="n">
-        <v>87761</v>
-      </c>
-      <c r="K7" t="n">
-        <v>110735</v>
-      </c>
-      <c r="L7" t="n">
-        <v>317</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1873542</v>
-      </c>
-      <c r="N7" t="n">
-        <v>30965</v>
-      </c>
-      <c r="O7" t="n">
-        <v>22562</v>
-      </c>
-      <c r="P7" t="n">
-        <v>134</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>9860</v>
-      </c>
-      <c r="R7" t="n">
-        <v>8575</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1255.53</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1497.52</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2192.15</v>
-      </c>
-      <c r="E8" t="n">
-        <v>507589.78</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1372851.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>125112.43</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5813686.24</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1137657.55</v>
-      </c>
-      <c r="J8" t="n">
-        <v>140918.03</v>
-      </c>
-      <c r="K8" t="n">
-        <v>316005.21</v>
-      </c>
-      <c r="L8" t="n">
-        <v>239.25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2073538.2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>64236.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>33660.24</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>8097.6</v>
-      </c>
-      <c r="R8" t="n">
         <v>28834.85</v>
       </c>
     </row>
